--- a/ML_Learning_Buds(HP Ivan Lin’s copy Jul 15 074832).xlsx
+++ b/ML_Learning_Buds(HP Ivan Lin’s copy Jul 15 074832).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\00_AI.Garden\01_Github\252_ML.tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC45370E-264E-4674-861B-E5A0ECCE4B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7EE231-A6A4-41F5-ADA2-46739B556DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12810" windowHeight="13680" tabRatio="605" firstSheet="4" activeTab="9" xr2:uid="{2AD08176-6702-4455-ABA3-70E607EBFF1E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="605" firstSheet="4" activeTab="7" xr2:uid="{2AD08176-6702-4455-ABA3-70E607EBFF1E}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN" sheetId="11" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="Audio" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1130,19 +1131,58 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1170,60 +1210,14 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1243,19 +1237,26 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1591,159 +1592,154 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="28"/>
-    <col min="2" max="2" width="6.7265625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="28"/>
-    <col min="4" max="4" width="59.81640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.7265625" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="8.7109375" style="28"/>
+    <col min="2" max="2" width="6.7109375" style="28" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="28"/>
+    <col min="4" max="4" width="59.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="51" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
         <v>204</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="53"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="54" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="54" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="56"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="37"/>
       <c r="D4" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="54" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
         <v>210</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="56"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="54" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="56"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="54" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="56"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="37"/>
       <c r="D7" s="2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="54" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
         <v>215</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="56"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="37"/>
       <c r="D8" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="54" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="56"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="54" t="s">
+    <row r="10" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="56"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="37"/>
       <c r="D10" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="11" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="54" t="s">
+    <row r="11" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="56"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="51"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="53"/>
+    <row r="12" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="38"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="40"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="51"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="53"/>
+    <row r="13" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="38"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="51"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="53"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="38"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="40"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="51"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="53"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="38"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="40"/>
       <c r="D15" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:C2"/>
@@ -1754,6 +1750,11 @@
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3:C3" location="ML.Math!A1" display="ML.Math" xr:uid="{4B3F88EE-FD09-4CD6-9621-B148374D0001}"/>
@@ -1775,33 +1776,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37BE6095-49DC-40BC-B300-E5D6FBD3C94E}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="28"/>
-    <col min="2" max="2" width="6.7265625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="28"/>
-    <col min="4" max="4" width="104.7265625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.7265625" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="8.7109375" style="28"/>
+    <col min="2" max="2" width="6.7109375" style="28" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="28"/>
+    <col min="4" max="4" width="104.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
@@ -1827,16 +1828,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="48" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="50"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="44"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="28">
         <v>191104</v>
       </c>
@@ -1853,7 +1854,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="28">
         <v>210428</v>
       </c>
@@ -1870,7 +1871,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>200511</v>
       </c>
@@ -1887,7 +1888,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>210113</v>
       </c>
@@ -1901,7 +1902,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>210429</v>
       </c>
@@ -1915,7 +1916,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>210225</v>
       </c>
@@ -1932,33 +1933,33 @@
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C11" s="13"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="13"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="43"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="45"/>
-    </row>
-    <row r="14" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="71"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="73"/>
+    </row>
+    <row r="14" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C14" s="13"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C15" s="13"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
@@ -1996,29 +1997,29 @@
       <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="6"/>
-    <col min="2" max="2" width="6.7265625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="6"/>
-    <col min="4" max="4" width="104.7265625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.7265625" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="8.7109375" style="6"/>
+    <col min="2" max="2" width="6.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="6"/>
+    <col min="4" max="4" width="104.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -2044,7 +2045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>211022</v>
       </c>
@@ -2055,7 +2056,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>220311</v>
       </c>
@@ -2066,7 +2067,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>220301</v>
       </c>
@@ -2077,7 +2078,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>190220</v>
       </c>
@@ -2088,7 +2089,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>220124</v>
       </c>
@@ -2099,7 +2100,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>180509</v>
       </c>
@@ -2110,15 +2111,15 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="48" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="42" t="s">
         <v>260</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="50"/>
-    </row>
-    <row r="10" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="44"/>
+    </row>
+    <row r="10" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>211228</v>
       </c>
@@ -2129,7 +2130,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>211228</v>
       </c>
@@ -2140,7 +2141,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>211227</v>
       </c>
@@ -2151,7 +2152,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>220103</v>
       </c>
@@ -2163,7 +2164,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>220603</v>
       </c>
@@ -2177,13 +2178,13 @@
         <v>259</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="28"/>
       <c r="B15" s="28"/>
       <c r="C15" s="13"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>201023</v>
       </c>
@@ -2194,7 +2195,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>200205</v>
       </c>
@@ -2205,7 +2206,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>170815</v>
       </c>
@@ -2216,7 +2217,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>180703</v>
       </c>
@@ -2230,7 +2231,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>180901</v>
       </c>
@@ -2241,7 +2242,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>180901</v>
       </c>
@@ -2252,7 +2253,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>180901</v>
       </c>
@@ -2263,7 +2264,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>180901</v>
       </c>
@@ -2274,7 +2275,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>220708</v>
       </c>
@@ -2332,29 +2333,29 @@
       <selection activeCell="A12" sqref="A12:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="6"/>
-    <col min="2" max="2" width="6.7265625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="6"/>
-    <col min="4" max="4" width="104.7265625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.7265625" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="8.7109375" style="6"/>
+    <col min="2" max="2" width="6.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="6"/>
+    <col min="4" max="4" width="104.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -2380,7 +2381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>200204</v>
       </c>
@@ -2392,7 +2393,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>190107</v>
       </c>
@@ -2404,7 +2405,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>190712</v>
       </c>
@@ -2413,7 +2414,7 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="28">
         <v>220603</v>
       </c>
@@ -2427,7 +2428,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>211228</v>
       </c>
@@ -2441,103 +2442,103 @@
         <v>262</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="34"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="34"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D31" s="2"/>
     </row>
   </sheetData>
@@ -2571,29 +2572,29 @@
       <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" outlineLevelRow="2" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="4"/>
-    <col min="2" max="2" width="6.7265625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="4"/>
-    <col min="4" max="4" width="104.7265625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.7265625" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="8.7109375" style="4"/>
+    <col min="2" max="2" width="6.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="4"/>
+    <col min="4" max="4" width="104.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2619,7 +2620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="28">
         <v>220301</v>
       </c>
@@ -2642,7 +2643,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>220219</v>
       </c>
@@ -2668,15 +2669,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="48" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="50"/>
-    </row>
-    <row r="6" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="44"/>
+    </row>
+    <row r="6" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28">
         <v>220704</v>
       </c>
@@ -2699,7 +2700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>220125</v>
       </c>
@@ -2722,7 +2723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>220204</v>
       </c>
@@ -2745,7 +2746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>211221</v>
       </c>
@@ -2768,7 +2769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>211118</v>
       </c>
@@ -2791,7 +2792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>210619</v>
       </c>
@@ -2814,7 +2815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>210428</v>
       </c>
@@ -2837,7 +2838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>210106</v>
       </c>
@@ -2860,7 +2861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <v>201230</v>
       </c>
@@ -2886,7 +2887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>200915</v>
       </c>
@@ -2909,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>200910</v>
       </c>
@@ -2932,7 +2933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>200808</v>
       </c>
@@ -2955,7 +2956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>200627</v>
       </c>
@@ -2978,7 +2979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>200720</v>
       </c>
@@ -3001,7 +3002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>200615</v>
       </c>
@@ -3024,7 +3025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>220610</v>
       </c>
@@ -3047,7 +3048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>200726</v>
       </c>
@@ -3070,7 +3071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>220218</v>
       </c>
@@ -3093,7 +3094,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>210526</v>
       </c>
@@ -3116,7 +3117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>210607</v>
       </c>
@@ -3139,7 +3140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>210816</v>
       </c>
@@ -3162,7 +3163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>211231</v>
       </c>
@@ -3185,7 +3186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>220111</v>
       </c>
@@ -3208,7 +3209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>210621</v>
       </c>
@@ -3231,7 +3232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>220111</v>
       </c>
@@ -3254,7 +3255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>181231</v>
       </c>
@@ -3277,7 +3278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>220417</v>
       </c>
@@ -3294,15 +3295,15 @@
         <v>153</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="58" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="60"/>
-    </row>
-    <row r="34" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="49"/>
+    </row>
+    <row r="34" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>220220</v>
       </c>
@@ -3319,7 +3320,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="25">
         <v>220417</v>
       </c>
@@ -3333,7 +3334,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="25">
         <v>220421</v>
       </c>
@@ -3347,7 +3348,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>220425</v>
       </c>
@@ -3361,16 +3362,16 @@
         <v>161</v>
       </c>
     </row>
-    <row r="38" spans="1:8" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="49" t="s">
+    <row r="38" spans="1:8" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="43" t="s">
         <v>225</v>
       </c>
-      <c r="B38" s="49"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="50"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="44"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="28">
         <v>211115</v>
       </c>
@@ -3394,7 +3395,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="28">
         <v>211130</v>
       </c>
@@ -3418,7 +3419,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="28">
         <v>220113</v>
       </c>
@@ -3442,7 +3443,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>220425</v>
       </c>
@@ -3465,13 +3466,13 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="43" spans="1:8" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A43" s="28"/>
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
-      <c r="D43" s="61"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D43" s="30"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C44" s="13" t="s">
         <v>164</v>
       </c>
@@ -3479,7 +3480,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C45" s="13" t="s">
         <v>6</v>
       </c>
@@ -3487,7 +3488,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>220201</v>
       </c>
@@ -3510,11 +3511,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C48" s="13"/>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>220706</v>
       </c>
@@ -3540,7 +3541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="28">
         <v>220609</v>
       </c>
@@ -3563,7 +3564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>220614</v>
       </c>
@@ -3586,7 +3587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>220628</v>
       </c>
@@ -3600,7 +3601,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>220629</v>
       </c>
@@ -3617,7 +3618,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F54" s="3">
         <v>0.75</v>
       </c>
@@ -3628,7 +3629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>220428</v>
       </c>
@@ -3642,7 +3643,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>220607</v>
       </c>
@@ -3656,7 +3657,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>220510</v>
       </c>
@@ -3782,29 +3783,29 @@
       <selection activeCell="A48" sqref="A48:XFD49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="4"/>
-    <col min="2" max="2" width="6.7265625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="4"/>
-    <col min="4" max="4" width="104.7265625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.7265625" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="8.7109375" style="4"/>
+    <col min="2" max="2" width="6.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="4"/>
+    <col min="4" max="4" width="104.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -3830,14 +3831,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>190713</v>
       </c>
       <c r="B3" s="4">
         <v>12</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="53" t="s">
         <v>66</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -3853,14 +3854,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>191023</v>
       </c>
       <c r="B4" s="4">
         <v>12</v>
       </c>
-      <c r="C4" s="39"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="7" t="s">
         <v>64</v>
       </c>
@@ -3874,7 +3875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <v>211014</v>
       </c>
@@ -3896,7 +3897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -3914,7 +3915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -3923,15 +3924,15 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="40" t="s">
+    <row r="8" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="42"/>
-    </row>
-    <row r="9" spans="1:8" s="9" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="57"/>
+    </row>
+    <row r="9" spans="1:8" s="9" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -3948,7 +3949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="9" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" s="9" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -3965,7 +3966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="9" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" s="9" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -3982,7 +3983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="9" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" s="9" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -3999,7 +4000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="9" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" s="9" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -4016,7 +4017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="9" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" s="9" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -4033,15 +4034,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="35" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="37"/>
-    </row>
-    <row r="16" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="52"/>
+    </row>
+    <row r="16" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>210818</v>
       </c>
@@ -4058,7 +4059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>201004</v>
       </c>
@@ -4075,7 +4076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>200825</v>
       </c>
@@ -4092,15 +4093,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="35" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="37"/>
-    </row>
-    <row r="20" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="52"/>
+    </row>
+    <row r="20" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>201213</v>
       </c>
@@ -4111,7 +4112,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>210102</v>
       </c>
@@ -4122,7 +4123,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>210117</v>
       </c>
@@ -4133,7 +4134,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>210603</v>
       </c>
@@ -4144,15 +4145,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="35" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="37"/>
-    </row>
-    <row r="25" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="52"/>
+    </row>
+    <row r="25" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>220209</v>
       </c>
@@ -4172,7 +4173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>220626</v>
       </c>
@@ -4198,7 +4199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>220204</v>
       </c>
@@ -4218,15 +4219,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="35" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="37"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="52"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>210723</v>
       </c>
@@ -4246,15 +4247,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="35" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="37"/>
-    </row>
-    <row r="31" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="51"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="52"/>
+    </row>
+    <row r="31" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>211114</v>
       </c>
@@ -4274,7 +4275,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="32" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>211030</v>
       </c>
@@ -4294,7 +4295,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="33" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>211030</v>
       </c>
@@ -4314,7 +4315,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="34" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>220127</v>
       </c>
@@ -4334,10 +4335,10 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>211113</v>
       </c>
@@ -4348,7 +4349,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="21">
         <v>210513</v>
       </c>
@@ -4360,7 +4361,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C39" s="4" t="s">
         <v>136</v>
       </c>
@@ -4368,7 +4369,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C40" s="4" t="s">
         <v>137</v>
       </c>
@@ -4376,7 +4377,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C42" s="13" t="s">
         <v>164</v>
       </c>
@@ -4384,7 +4385,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C43" s="13" t="s">
         <v>6</v>
       </c>
@@ -4392,7 +4393,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C45" s="13" t="s">
         <v>173</v>
       </c>
@@ -4400,83 +4401,83 @@
         <v>172</v>
       </c>
     </row>
-    <row r="48" spans="1:26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="70">
+    <row r="48" spans="1:26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="31">
         <v>220605</v>
       </c>
-      <c r="B48" s="70">
+      <c r="B48" s="31">
         <v>8</v>
       </c>
-      <c r="C48" s="71" t="s">
+      <c r="C48" s="32" t="s">
         <v>268</v>
       </c>
-      <c r="D48" s="72" t="s">
+      <c r="D48" s="33" t="s">
         <v>270</v>
       </c>
-      <c r="E48" s="73"/>
-      <c r="F48" s="73">
-        <v>0.8</v>
-      </c>
-      <c r="G48" s="73">
+      <c r="E48" s="34"/>
+      <c r="F48" s="34">
+        <v>0.8</v>
+      </c>
+      <c r="G48" s="34">
         <v>0.6</v>
       </c>
-      <c r="H48" s="73">
+      <c r="H48" s="34">
         <v>1</v>
       </c>
-      <c r="I48" s="73"/>
-      <c r="J48" s="73"/>
-      <c r="K48" s="73"/>
-      <c r="L48" s="73"/>
-      <c r="M48" s="73"/>
-      <c r="N48" s="73"/>
-      <c r="O48" s="73"/>
-      <c r="P48" s="73"/>
-      <c r="Q48" s="73"/>
-      <c r="R48" s="73"/>
-      <c r="S48" s="73"/>
-      <c r="T48" s="73"/>
-      <c r="U48" s="73"/>
-      <c r="V48" s="73"/>
-      <c r="W48" s="73"/>
-      <c r="X48" s="73"/>
-      <c r="Y48" s="73"/>
-      <c r="Z48" s="73"/>
-    </row>
-    <row r="49" spans="1:26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="70">
+      <c r="I48" s="34"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="34"/>
+      <c r="M48" s="34"/>
+      <c r="N48" s="34"/>
+      <c r="O48" s="34"/>
+      <c r="P48" s="34"/>
+      <c r="Q48" s="34"/>
+      <c r="R48" s="34"/>
+      <c r="S48" s="34"/>
+      <c r="T48" s="34"/>
+      <c r="U48" s="34"/>
+      <c r="V48" s="34"/>
+      <c r="W48" s="34"/>
+      <c r="X48" s="34"/>
+      <c r="Y48" s="34"/>
+      <c r="Z48" s="34"/>
+    </row>
+    <row r="49" spans="1:26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="31">
         <v>220711</v>
       </c>
-      <c r="B49" s="70">
+      <c r="B49" s="31">
         <v>5</v>
       </c>
-      <c r="C49" s="71" t="s">
+      <c r="C49" s="32" t="s">
         <v>268</v>
       </c>
-      <c r="D49" s="72" t="s">
+      <c r="D49" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="E49" s="73"/>
-      <c r="F49" s="73"/>
-      <c r="G49" s="73"/>
-      <c r="H49" s="73"/>
-      <c r="I49" s="73"/>
-      <c r="J49" s="73"/>
-      <c r="K49" s="73"/>
-      <c r="L49" s="73"/>
-      <c r="M49" s="73"/>
-      <c r="N49" s="73"/>
-      <c r="O49" s="73"/>
-      <c r="P49" s="73"/>
-      <c r="Q49" s="73"/>
-      <c r="R49" s="73"/>
-      <c r="S49" s="73"/>
-      <c r="T49" s="73"/>
-      <c r="U49" s="73"/>
-      <c r="V49" s="73"/>
-      <c r="W49" s="73"/>
-      <c r="X49" s="73"/>
-      <c r="Y49" s="73"/>
-      <c r="Z49" s="73"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="34"/>
+      <c r="M49" s="34"/>
+      <c r="N49" s="34"/>
+      <c r="O49" s="34"/>
+      <c r="P49" s="34"/>
+      <c r="Q49" s="34"/>
+      <c r="R49" s="34"/>
+      <c r="S49" s="34"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="34"/>
+      <c r="V49" s="34"/>
+      <c r="W49" s="34"/>
+      <c r="X49" s="34"/>
+      <c r="Y49" s="34"/>
+      <c r="Z49" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4548,29 +4549,29 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="6"/>
-    <col min="2" max="2" width="6.7265625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="6"/>
-    <col min="4" max="4" width="104.7265625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.7265625" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="8.7109375" style="6"/>
+    <col min="2" max="2" width="6.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="6"/>
+    <col min="4" max="4" width="104.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -4596,7 +4597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>210108</v>
       </c>
@@ -4608,7 +4609,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>210624</v>
       </c>
@@ -4620,7 +4621,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>210617</v>
       </c>
@@ -4632,7 +4633,7 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>200901</v>
       </c>
@@ -4644,7 +4645,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>200901</v>
       </c>
@@ -4656,103 +4657,103 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="34"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="34"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D31" s="2"/>
     </row>
   </sheetData>
@@ -4784,29 +4785,29 @@
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="6"/>
-    <col min="2" max="2" width="6.7265625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="6"/>
-    <col min="4" max="4" width="104.7265625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.7265625" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="8.7109375" style="6"/>
+    <col min="2" max="2" width="6.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="6"/>
+    <col min="4" max="4" width="104.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -4832,15 +4833,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32"/>
-    </row>
-    <row r="4" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="60"/>
+    </row>
+    <row r="4" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>190617</v>
       </c>
@@ -4852,7 +4853,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>190902</v>
       </c>
@@ -4860,7 +4861,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>200110</v>
       </c>
@@ -4868,7 +4869,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>190712</v>
       </c>
@@ -4876,7 +4877,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>190614</v>
       </c>
@@ -4885,7 +4886,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>191206</v>
       </c>
@@ -4894,7 +4895,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>190802</v>
       </c>
@@ -4903,7 +4904,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>210430</v>
       </c>
@@ -4912,7 +4913,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>200901</v>
       </c>
@@ -4921,7 +4922,7 @@
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>190817</v>
       </c>
@@ -4930,7 +4931,7 @@
       </c>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:8" s="9" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" s="9" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>200901</v>
       </c>
@@ -4940,7 +4941,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="9" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" s="9" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>190807</v>
       </c>
@@ -4950,7 +4951,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="9" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" s="9" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>200901</v>
       </c>
@@ -4960,7 +4961,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="9" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" s="9" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>210118</v>
       </c>
@@ -4970,7 +4971,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="9" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" s="9" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>190715</v>
       </c>
@@ -4980,7 +4981,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="9" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" s="9" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>200901</v>
       </c>
@@ -4990,7 +4991,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="9" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" s="9" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>190812</v>
       </c>
@@ -5000,7 +5001,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="9" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" s="9" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>190814</v>
       </c>
@@ -5010,7 +5011,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="9" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" s="9" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>200901</v>
       </c>
@@ -5020,13 +5021,13 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="9" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" s="9" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" s="9" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" s="9" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>190826</v>
       </c>
@@ -5036,7 +5037,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="9" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" s="9" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>191011</v>
       </c>
@@ -5046,7 +5047,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="9" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" s="9" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>191011</v>
       </c>
@@ -5056,13 +5057,13 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="9" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" s="9" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" s="9" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" s="9" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>190823</v>
       </c>
@@ -5072,7 +5073,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>200510</v>
       </c>
@@ -5080,7 +5081,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>220223</v>
       </c>
@@ -5091,7 +5092,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>220224</v>
       </c>
@@ -5102,64 +5103,64 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="34"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="46"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="34"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="46"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="34"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="46"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="34"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="46"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D47" s="2"/>
     </row>
   </sheetData>
@@ -5208,33 +5209,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BCDE4AC-D7A7-4446-A810-10F8E7FDFAFC}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="6"/>
-    <col min="2" max="2" width="6.7265625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="6"/>
-    <col min="4" max="4" width="104.7265625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.7265625" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="8.7109375" style="6"/>
+    <col min="2" max="2" width="6.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="6"/>
+    <col min="4" max="4" width="104.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -5260,7 +5261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>220307</v>
       </c>
@@ -5271,15 +5272,15 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="48" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="50"/>
-    </row>
-    <row r="5" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="44"/>
+    </row>
+    <row r="5" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>211127</v>
       </c>
@@ -5295,8 +5296,17 @@
       <c r="E5" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="F5" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>211207</v>
       </c>
@@ -5312,8 +5322,17 @@
       <c r="E6" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="F6" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>211217</v>
       </c>
@@ -5330,7 +5349,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>220117</v>
       </c>
@@ -5347,7 +5366,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>220210</v>
       </c>
@@ -5364,7 +5383,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>220305</v>
       </c>
@@ -5381,15 +5400,15 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="48" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="42" t="s">
         <v>255</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="50"/>
-    </row>
-    <row r="13" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="44"/>
+    </row>
+    <row r="13" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>220522</v>
       </c>
@@ -5403,7 +5422,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="14" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>220522</v>
       </c>
@@ -5417,7 +5436,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="15" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>220526</v>
       </c>
@@ -5431,7 +5450,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="16" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>220527</v>
       </c>
@@ -5445,7 +5464,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="17" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>220529</v>
       </c>
@@ -5459,7 +5478,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="18" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>211227</v>
       </c>
@@ -5473,7 +5492,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>190609</v>
       </c>
@@ -5490,7 +5509,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>181115</v>
       </c>
@@ -5562,29 +5581,29 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" outlineLevelRow="2" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="6"/>
-    <col min="2" max="2" width="6.7265625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="6"/>
-    <col min="4" max="4" width="104.7265625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.7265625" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="8.7109375" style="6"/>
+    <col min="2" max="2" width="6.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="6"/>
+    <col min="4" max="4" width="104.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -5610,7 +5629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>190109</v>
       </c>
@@ -5625,7 +5644,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>220417</v>
       </c>
@@ -5639,7 +5658,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>210429</v>
       </c>
@@ -5654,7 +5673,7 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="13" t="s">
@@ -5664,7 +5683,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="26" t="s">
@@ -5674,7 +5693,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>220708</v>
       </c>
@@ -5688,19 +5707,19 @@
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C9" s="13"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="65" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="64" t="s">
         <v>230</v>
       </c>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="67"/>
-    </row>
-    <row r="12" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="66"/>
+    </row>
+    <row r="12" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>200607</v>
       </c>
@@ -5714,7 +5733,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>190803</v>
       </c>
@@ -5728,17 +5747,17 @@
         <v>231</v>
       </c>
     </row>
-    <row r="14" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="68" t="s">
+    <row r="14" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="69" t="s">
         <v>240</v>
       </c>
-      <c r="B14" s="69"/>
-      <c r="C14" s="46" t="s">
+      <c r="B14" s="70"/>
+      <c r="C14" s="67" t="s">
         <v>233</v>
       </c>
-      <c r="D14" s="47"/>
-    </row>
-    <row r="15" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.35">
+      <c r="D14" s="68"/>
+    </row>
+    <row r="15" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>180416</v>
       </c>
@@ -5755,7 +5774,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="16" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>180416</v>
       </c>
@@ -5772,7 +5791,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="17" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>180416</v>
       </c>
@@ -5789,7 +5808,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="18" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>180416</v>
       </c>
@@ -5806,7 +5825,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="19" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>180416</v>
       </c>
@@ -5823,7 +5842,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="20" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>180924</v>
       </c>
@@ -5838,7 +5857,7 @@
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>180317</v>
       </c>
@@ -5853,7 +5872,7 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>180423</v>
       </c>
@@ -5868,7 +5887,7 @@
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="28">
         <v>170821</v>
       </c>
@@ -5883,7 +5902,7 @@
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>180328</v>
       </c>
@@ -5898,7 +5917,7 @@
       </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>210916</v>
       </c>
@@ -5913,7 +5932,7 @@
       </c>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="28"/>
       <c r="B26" s="28"/>
       <c r="C26" s="13" t="s">
@@ -5926,7 +5945,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="28">
         <v>190527</v>
       </c>
@@ -5939,7 +5958,7 @@
       </c>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="28"/>
       <c r="B28" s="28"/>
       <c r="C28" s="13"/>
@@ -5948,42 +5967,42 @@
       </c>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="28"/>
       <c r="B29" s="28"/>
       <c r="C29" s="13"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="28"/>
       <c r="B30" s="28"/>
       <c r="C30" s="13"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="28"/>
       <c r="B31" s="28"/>
       <c r="C31" s="13"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="28"/>
       <c r="B32" s="28"/>
       <c r="C32" s="13"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="62" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="61" t="s">
         <v>191</v>
       </c>
-      <c r="B33" s="63"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="64"/>
-    </row>
-    <row r="34" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="63"/>
+    </row>
+    <row r="34" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>220626</v>
       </c>
@@ -6009,7 +6028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C35" s="13" t="s">
         <v>173</v>
       </c>
@@ -6017,7 +6036,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="36" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:H1"/>
